--- a/runReal/strategyID.xlsx
+++ b/runReal/strategyID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019Strategy\gitCompetition\runReal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6C0E77-2665-403E-8820-EB7143E857AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD88093-9F01-4A74-BE58-C9D21C4A5665}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28755" yWindow="-16230" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>PanHaoLinStrategy</t>
   </si>
@@ -115,13 +115,16 @@
   </si>
   <si>
     <t>LuoFengStrategy</t>
+  </si>
+  <si>
+    <t>YangShiChengStrategy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +145,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,9 +174,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,19 +462,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +482,7 @@
         <v>13620887713</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,7 +490,7 @@
         <v>15625120181</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -485,7 +498,7 @@
         <v>13710635739</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -493,7 +506,7 @@
         <v>15254107371</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -501,7 +514,7 @@
         <v>18810907608</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="16.5">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -509,7 +522,7 @@
         <v>15636736771</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="16.5">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -517,7 +530,7 @@
         <v>15825095070</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="16.5">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -525,7 +538,7 @@
         <v>13906675588</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="16.5">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -533,7 +546,7 @@
         <v>18903041915</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="16.5">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -541,7 +554,7 @@
         <v>13280792097</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="16.5">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -549,7 +562,7 @@
         <v>13052424769</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="16.5">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -557,7 +570,7 @@
         <v>13710355765</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="16.5">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -565,7 +578,7 @@
         <v>13662475847</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="16.5">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -573,7 +586,7 @@
         <v>13580076524</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="16.5">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -581,7 +594,7 @@
         <v>13660152381</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="16.5">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -589,7 +602,7 @@
         <v>17322065965</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="16.5">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -597,7 +610,7 @@
         <v>18795908789</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="16.5">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -605,7 +618,7 @@
         <v>18800359659</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="16.5">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -613,7 +626,7 @@
         <v>18602155165</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="16.5">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -621,7 +634,7 @@
         <v>19960860720</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="16.5">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -629,7 +642,7 @@
         <v>17765234016</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="16.5">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -637,7 +650,7 @@
         <v>18801280213</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="16.5">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -645,7 +658,7 @@
         <v>13012093507</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="16.5">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -653,7 +666,7 @@
         <v>19100000070</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="16.5">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -661,7 +674,7 @@
         <v>13129323534</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="16.5">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -669,7 +682,7 @@
         <v>15521392438</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="16.5">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -677,7 +690,7 @@
         <v>18126867142</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="16.5">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -685,7 +698,7 @@
         <v>19100000069</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="16.5">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -693,12 +706,20 @@
         <v>15625002237</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="16.5">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>18339804016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.5">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>13922317479</v>
       </c>
     </row>
   </sheetData>

--- a/runReal/strategyID.xlsx
+++ b/runReal/strategyID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019Strategy\gitCompetition\runReal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD88093-9F01-4A74-BE58-C9D21C4A5665}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9999C5-8621-4E6A-8C62-9465CAE7C0C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28755" yWindow="-16230" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>PanHaoLinStrategy</t>
   </si>
@@ -118,13 +118,17 @@
   </si>
   <si>
     <t>YangShiChengStrategy</t>
+  </si>
+  <si>
+    <t>PangBo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +149,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,12 +171,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,19 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +476,7 @@
         <v>13620887713</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,7 +484,7 @@
         <v>15625120181</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5">
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -498,7 +492,7 @@
         <v>13710635739</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -506,7 +500,7 @@
         <v>15254107371</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -514,7 +508,7 @@
         <v>18810907608</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5">
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -522,7 +516,7 @@
         <v>15636736771</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5">
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -530,7 +524,7 @@
         <v>15825095070</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -538,7 +532,7 @@
         <v>13906675588</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,7 +540,7 @@
         <v>18903041915</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5">
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -554,7 +548,7 @@
         <v>13280792097</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5">
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -562,7 +556,7 @@
         <v>13052424769</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5">
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -570,7 +564,7 @@
         <v>13710355765</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5">
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -578,7 +572,7 @@
         <v>13662475847</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5">
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -586,7 +580,7 @@
         <v>13580076524</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5">
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -594,7 +588,7 @@
         <v>13660152381</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5">
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -602,7 +596,7 @@
         <v>17322065965</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5">
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -610,7 +604,7 @@
         <v>18795908789</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5">
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -618,7 +612,7 @@
         <v>18800359659</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5">
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -626,7 +620,7 @@
         <v>18602155165</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5">
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -634,7 +628,7 @@
         <v>19960860720</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5">
+    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -642,7 +636,7 @@
         <v>17765234016</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5">
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -650,7 +644,7 @@
         <v>18801280213</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5">
+    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -658,7 +652,7 @@
         <v>13012093507</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5">
+    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -666,7 +660,7 @@
         <v>19100000070</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5">
+    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -674,7 +668,7 @@
         <v>13129323534</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5">
+    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -682,7 +676,7 @@
         <v>15521392438</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5">
+    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -690,7 +684,7 @@
         <v>18126867142</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5">
+    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -698,7 +692,7 @@
         <v>19100000069</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5">
+    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -706,7 +700,7 @@
         <v>15625002237</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5">
+    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -714,16 +708,25 @@
         <v>18339804016</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>13922317479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>13153190769</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/runReal/strategyID.xlsx
+++ b/runReal/strategyID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019Strategy\gitCompetition\runReal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9999C5-8621-4E6A-8C62-9465CAE7C0C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC334846-E963-4AB0-AB01-DF520930DC1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>YangShiChengStrategy</t>
   </si>
   <si>
-    <t>PangBo</t>
+    <t>PangBoStrategy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
